--- a/data/trans_orig/IP11D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP11D_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{734F742E-28CF-4546-A66E-791B2911B9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{133FE813-8815-4AD4-9495-047050EB3789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A048E6E3-A236-48CA-AD8E-C7EF93C3DD4A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4F68881-990F-4664-A9B7-1A97C0DE51C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
   <si>
     <t>Menores según si han sufrido algún tipo de agresión en los últimos 12 meses en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -101,10 +101,10 @@
     <t>5,62%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -113,19 +113,19 @@
     <t>3,0%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>94,38%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>97,26%</t>
@@ -134,10 +134,10 @@
     <t>97,0%</t>
   </si>
   <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -146,154 +146,148 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,47%</t>
+    <t>97,11%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>97,41%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>1,71%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>97,52%</t>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>98,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -708,7 +702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615F903E-52F5-4DBE-9CAB-D88B1541FED9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9CFABB-ED10-45B9-ACD7-B446DFB9209B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1324,10 +1318,10 @@
         <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,13 +1336,13 @@
         <v>172165</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>228</v>
@@ -1357,10 +1351,10 @@
         <v>150138</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -1372,13 +1366,13 @@
         <v>322302</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,13 +1440,13 @@
         <v>8987</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1461,13 +1455,13 @@
         <v>5461</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -1476,13 +1470,13 @@
         <v>14448</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,13 +1491,13 @@
         <v>715838</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H17" s="7">
         <v>933</v>
@@ -1512,13 +1506,13 @@
         <v>647004</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>1898</v>
@@ -1527,13 +1521,13 @@
         <v>1362843</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1589,7 +1583,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP11D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP11D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{133FE813-8815-4AD4-9495-047050EB3789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00A9AD67-4235-4B86-84D0-933A236B5A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4F68881-990F-4664-A9B7-1A97C0DE51C2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{828AEA13-6FCB-45B0-B1D9-2BDC423E4A3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
   <si>
     <t>Menores según si han sufrido algún tipo de agresión en los últimos 12 meses en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,22 +65,37 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -89,109 +104,82 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>97,26%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -200,94 +188,94 @@
     <t>Universitarios</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -702,8 +690,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9CFABB-ED10-45B9-ACD7-B446DFB9209B}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1663AF-828F-4641-B889-30191DDBD386}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -822,94 +810,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3616</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3616</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D5" s="7">
+        <v>54678</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>58388</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>113066</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -918,151 +910,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>3303</v>
+        <v>4186</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3455</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>3303</v>
+        <v>7640</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>80</v>
+        <v>635</v>
       </c>
       <c r="D8" s="7">
-        <v>55454</v>
+        <v>455124</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>69</v>
+        <v>650</v>
       </c>
       <c r="I8" s="7">
-        <v>51202</v>
+        <v>512239</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>149</v>
+        <v>1285</v>
       </c>
       <c r="N8" s="7">
-        <v>106656</v>
+        <v>967364</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1071,153 +1065,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>641</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459310</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>655</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>515694</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1296</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>975004</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1208</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2615</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
-        <v>3266</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4229</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="7">
-        <v>11</v>
-      </c>
       <c r="N10" s="7">
-        <v>7496</v>
+        <v>3824</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>650</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>488220</v>
+        <v>148343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>635</v>
+        <v>235</v>
       </c>
       <c r="I11" s="7">
-        <v>444493</v>
+        <v>180734</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>1285</v>
+        <v>463</v>
       </c>
       <c r="N11" s="7">
-        <v>932712</v>
+        <v>329076</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1226,153 +1220,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>655</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>491486</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>641</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>448722</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>1296</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>940208</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>2418</v>
+        <v>5394</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>1232</v>
+        <v>9687</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>3650</v>
+        <v>15080</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>932</v>
       </c>
       <c r="D14" s="7">
-        <v>172165</v>
+        <v>658145</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>228</v>
+        <v>965</v>
       </c>
       <c r="I14" s="7">
-        <v>150138</v>
+        <v>751360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>463</v>
+        <v>1897</v>
       </c>
       <c r="N14" s="7">
-        <v>322302</v>
+        <v>1409506</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1381,216 +1375,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>940</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>663539</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761047</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1916</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1424586</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7">
-        <v>8987</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5461</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="7">
-        <v>19</v>
-      </c>
-      <c r="N16" s="7">
-        <v>14448</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>965</v>
-      </c>
-      <c r="D17" s="7">
-        <v>715838</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="7">
-        <v>933</v>
-      </c>
-      <c r="I17" s="7">
-        <v>647004</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="A16" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1898</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1362843</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>976</v>
-      </c>
-      <c r="D18" s="7">
-        <v>724825</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652465</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1377291</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
